--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>TEAM DEVELOPER BURNDOWN CHART</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Mendaftar GitHub &amp; Trello</t>
   </si>
   <si>
-    <t>Create repository local &amp; server</t>
-  </si>
-  <si>
     <t>Team Developer meeting</t>
   </si>
   <si>
@@ -102,6 +99,12 @@
   </si>
   <si>
     <t>Total waktu</t>
+  </si>
+  <si>
+    <t>Siap Hari Ini</t>
+  </si>
+  <si>
+    <t>Membuat repository local &amp; server</t>
   </si>
 </sst>
 </file>
@@ -151,13 +154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,28 +214,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,11 +238,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,6 +291,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>BURNDOWN CHART E-COMMERCE SHOPIFY</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -292,13 +336,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -311,6 +361,176 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Siap Hari Ini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="430355800"/>
+        <c:axId val="430362464"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -319,36 +539,400 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$29:$B$31</c:f>
+              <c:f>Sheet1!$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Actual Remaining Hours</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Estimated Remaining Hours</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4699207666117521E-2"/>
+                  <c:y val="-3.3691733899283718E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Lamanya Hari - 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lamanya Hari - 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lamanya Hari - 10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lamanya Hari - 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lamanya Hari - 8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lamanya Hari - 7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lamanya Hari - 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lamanya Hari - 5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lamanya Hari - 4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Lamanya Hari - 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Lamanya Hari - 2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lamanya Hari - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$C$31:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8532764135443867E-2"/>
+                  <c:y val="1.9818666999578658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Lamanya Hari - 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lamanya Hari - 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lamanya Hari - 10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lamanya Hari - 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lamanya Hari - 8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lamanya Hari - 7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lamanya Hari - 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lamanya Hari - 5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lamanya Hari - 4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Lamanya Hari - 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Lamanya Hari - 2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lamanya Hari - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$O$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -362,17 +946,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567005200"/>
-        <c:axId val="567007552"/>
+        <c:axId val="430355800"/>
+        <c:axId val="430362464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="567005200"/>
+        <c:axId val="430355800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -380,9 +966,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -394,11 +980,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -409,7 +994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567007552"/>
+        <c:crossAx val="430362464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,9 +1002,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567007552"/>
+        <c:axId val="430362464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="75"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,9 +1014,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -453,11 +1040,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -468,9 +1054,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567005200"/>
+        <c:crossAx val="430355800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -480,22 +1067,64 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -504,7 +1133,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -558,35 +1187,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -594,26 +1221,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -622,9 +1257,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -643,14 +1277,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -659,45 +1285,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -709,31 +1325,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -751,21 +1365,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -775,20 +1386,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -802,14 +1413,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -823,9 +1434,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -839,12 +1449,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -856,9 +1460,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -873,14 +1477,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -892,14 +1495,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -911,14 +1514,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -927,14 +1529,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -942,7 +1543,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -955,11 +1556,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -967,14 +1578,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -986,12 +1597,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1007,7 +1625,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1016,9 +1633,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1028,7 +1644,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1036,9 +1652,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1049,9 +1665,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1063,12 +1678,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1077,20 +1686,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>163287</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1373,14 +1982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
@@ -1396,101 +2005,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>25</v>
+      <c r="O5" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5">
@@ -1535,7 +2144,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1551,7 +2160,7 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -1591,12 +2200,12 @@
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" ref="O9:O24" si="0">SUM(C9:N10)</f>
+        <f t="shared" ref="O9" si="0">SUM(C9:N10)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1612,8 +2221,8 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>16</v>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -1652,12 +2261,12 @@
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:O24" si="1">SUM(C11:N12)</f>
+        <f t="shared" ref="O11" si="1">SUM(C11:N12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1673,8 +2282,8 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>22</v>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -1713,12 +2322,12 @@
         <v>1.5</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:O24" si="2">SUM(C13:N14)</f>
+        <f t="shared" ref="O13" si="2">SUM(C13:N14)</f>
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1734,8 +2343,8 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>17</v>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -1774,12 +2383,12 @@
         <v>0</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" ref="O15:O24" si="3">SUM(C15:N16)</f>
+        <f t="shared" ref="O15" si="3">SUM(C15:N16)</f>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1795,8 +2404,8 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -1835,12 +2444,12 @@
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" ref="O17:O24" si="4">SUM(C17:N18)</f>
+        <f t="shared" ref="O17" si="4">SUM(C17:N18)</f>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1856,8 +2465,8 @@
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>19</v>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -1896,12 +2505,12 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" ref="O19:O24" si="5">SUM(C19:N20)</f>
+        <f t="shared" ref="O19" si="5">SUM(C19:N20)</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1917,8 +2526,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>20</v>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -1957,12 +2566,12 @@
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" ref="O21:O24" si="6">SUM(C21:N22)</f>
+        <f t="shared" ref="O21" si="6">SUM(C21:N22)</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1978,8 +2587,8 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>21</v>
+      <c r="B23" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -2018,12 +2627,12 @@
         <v>0</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" ref="O23:O24" si="7">SUM(C23:N24)</f>
+        <f t="shared" ref="O23" si="7">SUM(C23:N24)</f>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2038,333 +2647,196 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+    <row r="26" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+    <row r="28" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="4">
+    <row r="29" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
         <f>SUM(O7:O24)</f>
         <v>70.5</v>
       </c>
-      <c r="D29" s="12">
-        <f>C29-SUM(C7:C24)</f>
+      <c r="D31" s="4">
+        <f>C31-SUM(C7:C24)</f>
         <v>67.5</v>
       </c>
-      <c r="E29" s="12">
-        <f t="shared" ref="E29:O29" si="8">D29-SUM(D7:D24)</f>
+      <c r="E31" s="4">
+        <f>D31-SUM(D7:D24)</f>
         <v>66.5</v>
       </c>
-      <c r="F29" s="12">
-        <f t="shared" si="8"/>
+      <c r="F31" s="4">
+        <f>E31-SUM(E7:E24)</f>
         <v>63.5</v>
       </c>
-      <c r="G29" s="12">
-        <f t="shared" si="8"/>
+      <c r="G31" s="4">
+        <f>F31-SUM(F7:F24)</f>
         <v>52.5</v>
       </c>
-      <c r="H29" s="12">
-        <f t="shared" si="8"/>
+      <c r="H31" s="4">
+        <f>G31-SUM(G7:G24)</f>
         <v>49</v>
       </c>
-      <c r="I29" s="12">
-        <f t="shared" si="8"/>
+      <c r="I31" s="4">
+        <f>H31-SUM(H7:H24)</f>
         <v>43.5</v>
       </c>
-      <c r="J29" s="12">
-        <f t="shared" si="8"/>
+      <c r="J31" s="4">
+        <f>I31-SUM(I7:I24)</f>
         <v>34.5</v>
       </c>
-      <c r="K29" s="12">
-        <f t="shared" si="8"/>
+      <c r="K31" s="4">
+        <f>J31-SUM(J7:J24)</f>
         <v>28.5</v>
       </c>
-      <c r="L29" s="12">
-        <f t="shared" si="8"/>
+      <c r="L31" s="4">
+        <f>K31-SUM(K7:K24)</f>
         <v>20</v>
       </c>
-      <c r="M29" s="12">
-        <f t="shared" si="8"/>
+      <c r="M31" s="4">
+        <f>L31-SUM(L7:L24)</f>
         <v>13.5</v>
       </c>
-      <c r="N29" s="12">
-        <f t="shared" si="8"/>
+      <c r="N31" s="4">
+        <f>M31-SUM(M7:M24)</f>
         <v>3</v>
       </c>
-      <c r="O29" s="12">
-        <f t="shared" si="8"/>
+      <c r="O31" s="4">
+        <f>N31-SUM(N7:N24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="4">
-        <f>C29</f>
+    <row r="32" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <f>C31</f>
         <v>70.5</v>
       </c>
-      <c r="D31" s="4">
-        <f>C31-($C$31/12)</f>
+      <c r="D32" s="2">
+        <f>C32-($C$32/12)</f>
         <v>64.625</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" ref="E31:N31" si="9">D31-($C$31/12)</f>
+      <c r="E32" s="2">
+        <f>D32-($C$32/12)</f>
         <v>58.75</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="9"/>
+      <c r="F32" s="2">
+        <f>E32-($C$32/12)</f>
         <v>52.875</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" si="9"/>
+      <c r="G32" s="2">
+        <f>F32-($C$32/12)</f>
         <v>47</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" si="9"/>
+      <c r="H32" s="2">
+        <f>G32-($C$32/12)</f>
         <v>41.125</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="9"/>
+      <c r="I32" s="2">
+        <f>H32-($C$32/12)</f>
         <v>35.25</v>
       </c>
-      <c r="J31" s="4">
-        <f t="shared" si="9"/>
+      <c r="J32" s="2">
+        <f>I32-($C$32/12)</f>
         <v>29.375</v>
       </c>
-      <c r="K31" s="4">
-        <f t="shared" si="9"/>
+      <c r="K32" s="2">
+        <f>J32-($C$32/12)</f>
         <v>23.5</v>
       </c>
-      <c r="L31" s="4">
-        <f t="shared" si="9"/>
+      <c r="L32" s="2">
+        <f>K32-($C$32/12)</f>
         <v>17.625</v>
       </c>
-      <c r="M31" s="4">
-        <f t="shared" si="9"/>
+      <c r="M32" s="2">
+        <f>L32-($C$32/12)</f>
         <v>11.75</v>
       </c>
-      <c r="N31" s="4">
-        <f t="shared" si="9"/>
+      <c r="N32" s="2">
+        <f>M32-($C$32/12)</f>
         <v>5.875</v>
       </c>
-      <c r="O31" s="4">
-        <f t="shared" ref="O31" si="10">N31-($C$31/12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="2">
+        <f>N32-($C$32/12)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="169">
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+  <mergeCells count="142">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -2387,6 +2859,126 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="B28:O29"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N11:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
